--- a/repswitch_practice_2.xlsx
+++ b/repswitch_practice_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87B5E8C-11E4-49EF-A8EE-0F0F0957F4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FCA9F9-A95E-47D8-8088-E43F60BD9837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,9 +74,6 @@
     <t>T</t>
   </si>
   <si>
-    <t>blue</t>
-  </si>
-  <si>
     <t>yellow</t>
   </si>
   <si>
@@ -113,25 +110,28 @@
     <t>basura</t>
   </si>
   <si>
-    <t>REPSWITCH1_Practice/PICTURE_498.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Practice/PICTURE_354.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Practice/PICTURE_338.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Practice/PICTURE_673.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Practice/PICTURE_279.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Practice/PICTURE_749.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Practice/PICTURE_502.png</t>
+    <t>REPSWITCH1_Practice_2/PICTURE_498.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Practice_2/PICTURE_354.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Practice_2/PICTURE_338.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Practice_2/PICTURE_673.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Practice_2/PICTURE_279.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Practice_2/PICTURE_749.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Practice_2/PICTURE_502.png</t>
+  </si>
+  <si>
+    <t>indigo</t>
   </si>
 </sst>
 </file>
@@ -207,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -221,17 +221,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -745,12 +740,12 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.21875" customWidth="1"/>
     <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -762,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>9</v>
@@ -778,14 +773,14 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>26</v>
+      <c r="A2" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>11</v>
@@ -794,7 +789,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>3</v>
@@ -802,13 +797,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -817,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>1</v>
@@ -825,13 +820,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
@@ -840,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>12</v>
@@ -848,13 +843,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -863,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>1</v>
@@ -871,13 +866,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>4</v>
@@ -886,44 +881,44 @@
         <v>2</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="A7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="12">
-        <v>1</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -932,7 +927,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>1</v>
@@ -940,13 +935,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>4</v>
@@ -955,67 +950,67 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="A10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="13">
-        <v>1</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="13">
-        <v>2</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="10" t="s">
+      <c r="E11" s="9">
+        <v>2</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
@@ -1024,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>1</v>
@@ -1032,13 +1027,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>4</v>
@@ -1047,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>12</v>
@@ -1055,13 +1050,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>10</v>
@@ -1070,7 +1065,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>1</v>
@@ -1078,13 +1073,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>2</v>
@@ -1093,90 +1088,90 @@
         <v>2</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="A16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="12">
-        <v>1</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="13">
-        <v>1</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="13">
-        <v>2</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="11" t="s">
+      <c r="E18" s="9">
+        <v>2</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>10</v>
@@ -1185,7 +1180,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>1</v>
@@ -1193,13 +1188,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>2</v>
@@ -1208,47 +1203,47 @@
         <v>2</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="A21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="13">
-        <v>1</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="10" t="s">
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>10</v>
@@ -1257,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>1</v>
@@ -1265,13 +1260,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>4</v>
@@ -1280,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>12</v>
@@ -1288,13 +1283,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>10</v>
@@ -1303,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G24" t="s">
         <v>1</v>
@@ -1311,14 +1306,14 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D25" s="1" t="s">
         <v>2</v>
       </c>
@@ -1326,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>

--- a/repswitch_practice_2.xlsx
+++ b/repswitch_practice_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCEDC00-43C3-496D-AAC9-57D8407316DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2070C667-0511-4DC7-A543-7E00A1CC1B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="9708" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="9" r:id="rId1"/>
@@ -582,6 +582,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/repswitch_practice_2.xlsx
+++ b/repswitch_practice_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2070C667-0511-4DC7-A543-7E00A1CC1B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D8EA74-2DEE-4B4A-B93C-EE265A85BAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16080" yWindow="600" windowWidth="6960" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="9" r:id="rId1"/>
@@ -98,7 +98,7 @@
     <t>yellow</t>
   </si>
   <si>
-    <t>indigo</t>
+    <t>darkblue</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C02D16B-9E84-44A8-8E24-BD4A4BF22DCA}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/repswitch_practice_2.xlsx
+++ b/repswitch_practice_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D8EA74-2DEE-4B4A-B93C-EE265A85BAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A5158C-345F-4DD9-BA8C-1756CDC6CEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="600" windowWidth="6960" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="9" r:id="rId1"/>
@@ -95,10 +95,10 @@
     <t>sirena</t>
   </si>
   <si>
-    <t>yellow</t>
-  </si>
-  <si>
     <t>darkblue</t>
+  </si>
+  <si>
+    <t>gold</t>
   </si>
 </sst>
 </file>
@@ -611,7 +611,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -625,7 +625,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -639,7 +639,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -653,7 +653,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -667,7 +667,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -681,7 +681,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -695,7 +695,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -709,7 +709,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -723,7 +723,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -737,7 +737,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -751,7 +751,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -765,7 +765,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
